--- a/Code/Results/Cases/Case_4_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_133/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9980754740780924</v>
+        <v>0.7303842732983412</v>
       </c>
       <c r="C2">
-        <v>0.124867937415587</v>
+        <v>0.06990963580585685</v>
       </c>
       <c r="D2">
-        <v>0.5439178130733922</v>
+        <v>0.6767035258003489</v>
       </c>
       <c r="E2">
-        <v>0.2422356419602991</v>
+        <v>0.2755673430226437</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.324959093235378</v>
+        <v>3.060189984765742</v>
       </c>
       <c r="H2">
-        <v>1.908430111680218</v>
+        <v>2.307321076619587</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1430523103040642</v>
+        <v>0.1430532246694796</v>
       </c>
       <c r="K2">
-        <v>1.029460672578779</v>
+        <v>0.7220761204327459</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8664948831517449</v>
+        <v>0.7038350451051656</v>
       </c>
       <c r="C3">
-        <v>0.107082077918534</v>
+        <v>0.06679977807573323</v>
       </c>
       <c r="D3">
-        <v>0.4912164777472867</v>
+        <v>0.6674835966361456</v>
       </c>
       <c r="E3">
-        <v>0.2174067465175398</v>
+        <v>0.2709806420593637</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.055224251544644</v>
+        <v>2.988258369005621</v>
       </c>
       <c r="H3">
-        <v>1.78716423261821</v>
+        <v>2.27751785654462</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1273615512728483</v>
+        <v>0.139968016515013</v>
       </c>
       <c r="K3">
-        <v>0.8908322950021272</v>
+        <v>0.6948936435151438</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7872707559479863</v>
+        <v>0.6881313307902417</v>
       </c>
       <c r="C4">
-        <v>0.09638547702246569</v>
+        <v>0.06497022058290725</v>
       </c>
       <c r="D4">
-        <v>0.4597568069075066</v>
+        <v>0.6621814344264862</v>
       </c>
       <c r="E4">
-        <v>0.2025736933293132</v>
+        <v>0.2683175004330494</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.893664601465474</v>
+        <v>2.944937172142261</v>
       </c>
       <c r="H4">
-        <v>1.714834046173905</v>
+        <v>2.259796618350009</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1179790837546051</v>
+        <v>0.1381581173780191</v>
       </c>
       <c r="K4">
-        <v>0.8073829658007696</v>
+        <v>0.6788364726088219</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7553348667009061</v>
+        <v>0.6818819778537488</v>
       </c>
       <c r="C5">
-        <v>0.0920751885276303</v>
+        <v>0.06424466735195722</v>
       </c>
       <c r="D5">
-        <v>0.4471417696911431</v>
+        <v>0.6601108838342782</v>
       </c>
       <c r="E5">
-        <v>0.1966225935199333</v>
+        <v>0.2672706678702923</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.82874314092237</v>
+        <v>2.927494433010708</v>
       </c>
       <c r="H5">
-        <v>1.685844568780681</v>
+        <v>2.25271983344112</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1142124064120011</v>
+        <v>0.1374417309590399</v>
       </c>
       <c r="K5">
-        <v>0.7737463726350029</v>
+        <v>0.67245188780376</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7500517306370682</v>
+        <v>0.6808533327882458</v>
       </c>
       <c r="C6">
-        <v>0.09136219584662797</v>
+        <v>0.06412539561493702</v>
       </c>
       <c r="D6">
-        <v>0.4450588514501703</v>
+        <v>0.6597725101003675</v>
       </c>
       <c r="E6">
-        <v>0.1956397841413704</v>
+        <v>0.2670991602055466</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.818015347488796</v>
+        <v>2.924610779489797</v>
       </c>
       <c r="H6">
-        <v>1.681058850016115</v>
+        <v>2.251553464802981</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1135901989412957</v>
+        <v>0.1373240517018459</v>
       </c>
       <c r="K6">
-        <v>0.7681819841204174</v>
+        <v>0.6714013168384838</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7868387033801696</v>
+        <v>0.6880464426429569</v>
       </c>
       <c r="C7">
-        <v>0.09632715958248639</v>
+        <v>0.06496035462828331</v>
       </c>
       <c r="D7">
-        <v>0.459585872563963</v>
+        <v>0.6621531455143099</v>
       </c>
       <c r="E7">
-        <v>0.2024930689557678</v>
+        <v>0.2683032270306214</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.892785474651816</v>
+        <v>2.944701080932845</v>
       </c>
       <c r="H7">
-        <v>1.714441179975893</v>
+        <v>2.259700593020426</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1179280634978497</v>
+        <v>0.1381483703447373</v>
       </c>
       <c r="K7">
-        <v>0.8069278972732548</v>
+        <v>0.6787497251424099</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9523527456181853</v>
+        <v>0.7211059062411493</v>
       </c>
       <c r="C8">
-        <v>0.118684059440028</v>
+        <v>0.06882071772557197</v>
       </c>
       <c r="D8">
-        <v>0.5255465413405886</v>
+        <v>0.6734499194764396</v>
       </c>
       <c r="E8">
-        <v>0.2335827812171516</v>
+        <v>0.2739540183715192</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.231046195094137</v>
+        <v>3.035211627523353</v>
       </c>
       <c r="H8">
-        <v>1.866145124432705</v>
+        <v>2.296924579832393</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.137585780403839</v>
+        <v>0.1419718782165589</v>
       </c>
       <c r="K8">
-        <v>0.9812837613857255</v>
+        <v>0.7125720169727288</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.291625373510215</v>
+        <v>0.7906931984257426</v>
       </c>
       <c r="C9">
-        <v>0.1646877453196822</v>
+        <v>0.0770294726396088</v>
       </c>
       <c r="D9">
-        <v>0.6630803737743918</v>
+        <v>0.6984586076710286</v>
       </c>
       <c r="E9">
-        <v>0.298322939301201</v>
+        <v>0.2862547639414785</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.931805844412139</v>
+        <v>3.219486578570638</v>
       </c>
       <c r="H9">
-        <v>2.182969755323739</v>
+        <v>2.374539148810129</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1784585258034994</v>
+        <v>0.1501433988455076</v>
       </c>
       <c r="K9">
-        <v>1.338938019780443</v>
+        <v>0.7839398942285243</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.553382528742929</v>
+        <v>0.8447490603749372</v>
       </c>
       <c r="C10">
-        <v>0.2004081554678834</v>
+        <v>0.08345698068525564</v>
       </c>
       <c r="D10">
-        <v>0.7707518789191852</v>
+        <v>0.7185876003397595</v>
       </c>
       <c r="E10">
-        <v>0.3489735280652226</v>
+        <v>0.2960435428454389</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.477583230125504</v>
+        <v>3.359132915113491</v>
       </c>
       <c r="H10">
-        <v>2.431332029654413</v>
+        <v>2.434429349751127</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2104139676903998</v>
+        <v>0.1565636993857566</v>
       </c>
       <c r="K10">
-        <v>1.615203728760918</v>
+        <v>0.8394834505520237</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.676078540980683</v>
+        <v>0.869983740137485</v>
       </c>
       <c r="C11">
-        <v>0.2172317330408333</v>
+        <v>0.08646877457145763</v>
       </c>
       <c r="D11">
-        <v>0.8215912599523847</v>
+        <v>0.7281292354047935</v>
       </c>
       <c r="E11">
-        <v>0.3728870412392666</v>
+        <v>0.3006617131284699</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.734652666220768</v>
+        <v>3.423614286509348</v>
       </c>
       <c r="H11">
-        <v>2.548673001592874</v>
+        <v>2.462309014251503</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2255002535782182</v>
+        <v>0.1595763122579257</v>
       </c>
       <c r="K11">
-        <v>1.744814619408515</v>
+        <v>0.8654352204852387</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.723147133013356</v>
+        <v>0.8796325633464335</v>
       </c>
       <c r="C12">
-        <v>0.2237000209803881</v>
+        <v>0.08762202156832188</v>
       </c>
       <c r="D12">
-        <v>0.8411500317287164</v>
+        <v>0.7317979643982255</v>
       </c>
       <c r="E12">
-        <v>0.3820871176005483</v>
+        <v>0.3024343754141867</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.833458898504148</v>
+        <v>3.448171050664996</v>
       </c>
       <c r="H12">
-        <v>2.593826058463776</v>
+        <v>2.472958472071866</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.231304573254306</v>
+        <v>0.1607304342860232</v>
       </c>
       <c r="K12">
-        <v>1.794556438300731</v>
+        <v>0.8753614930674303</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.712981626960584</v>
+        <v>0.8775503750730138</v>
       </c>
       <c r="C13">
-        <v>0.2223023596021392</v>
+        <v>0.08737308056764448</v>
       </c>
       <c r="D13">
-        <v>0.8369233605074271</v>
+        <v>0.7310053658710274</v>
       </c>
       <c r="E13">
-        <v>0.3800989571280056</v>
+        <v>0.3020515379304101</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.81211092115808</v>
+        <v>3.44287610042096</v>
       </c>
       <c r="H13">
-        <v>2.584067998661737</v>
+        <v>2.470660816684585</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2300502255989301</v>
+        <v>0.1604812801049462</v>
       </c>
       <c r="K13">
-        <v>1.783812606630534</v>
+        <v>0.8732192869077835</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.679938223229584</v>
+        <v>0.8707756888583162</v>
       </c>
       <c r="C14">
-        <v>0.2177618345130696</v>
+        <v>0.08656339682069358</v>
       </c>
       <c r="D14">
-        <v>0.8231939739514473</v>
+        <v>0.7284299502308045</v>
       </c>
       <c r="E14">
-        <v>0.3736409219217975</v>
+        <v>0.3008070722918816</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.742751056495081</v>
+        <v>3.42563178957505</v>
       </c>
       <c r="H14">
-        <v>2.552372803725802</v>
+        <v>2.463183303155404</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2259758682582458</v>
+        <v>0.1596709953172848</v>
       </c>
       <c r="K14">
-        <v>1.748893074177715</v>
+        <v>0.8662498762310236</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.659779861361955</v>
+        <v>0.8666381191149242</v>
       </c>
       <c r="C15">
-        <v>0.2149938170666985</v>
+        <v>0.0860691052985203</v>
       </c>
       <c r="D15">
-        <v>0.8148255716513404</v>
+        <v>0.7268596693382108</v>
       </c>
       <c r="E15">
-        <v>0.3697046219737672</v>
+        <v>0.3000479117798065</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.700462429191646</v>
+        <v>3.415087311597404</v>
       </c>
       <c r="H15">
-        <v>2.533055075521929</v>
+        <v>2.458615115962857</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2234925153984619</v>
+        <v>0.1591764084672604</v>
       </c>
       <c r="K15">
-        <v>1.727592957809691</v>
+        <v>0.8619938039631734</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.545443998289755</v>
+        <v>0.8431129098889301</v>
       </c>
       <c r="C16">
-        <v>0.1993214862928312</v>
+        <v>0.0832619305643334</v>
       </c>
       <c r="D16">
-        <v>0.7674700947438851</v>
+        <v>0.7179717913383001</v>
       </c>
       <c r="E16">
-        <v>0.347429856365352</v>
+        <v>0.2957450678382543</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.460976219759772</v>
+        <v>3.354938275656139</v>
       </c>
       <c r="H16">
-        <v>2.423758832207312</v>
+        <v>2.432620189891765</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2094401304678684</v>
+        <v>0.1563686761382712</v>
       </c>
       <c r="K16">
-        <v>1.606820406838494</v>
+        <v>0.8378012568861379</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.476287759599387</v>
+        <v>0.8288462351881378</v>
       </c>
       <c r="C17">
-        <v>0.1898641418430316</v>
+        <v>0.08156240595475595</v>
       </c>
       <c r="D17">
-        <v>0.7389219060489154</v>
+        <v>0.7126180610341351</v>
       </c>
       <c r="E17">
-        <v>0.3340012896279134</v>
+        <v>0.293147799512063</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.3164427793036</v>
+        <v>3.318284707459753</v>
       </c>
       <c r="H17">
-        <v>2.357887532438838</v>
+        <v>2.416836342484117</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2009685787691495</v>
+        <v>0.1546698419674755</v>
       </c>
       <c r="K17">
-        <v>1.533802414089052</v>
+        <v>0.8231355946256826</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.436846074325274</v>
+        <v>0.8207010541698594</v>
       </c>
       <c r="C18">
-        <v>0.1844775652527062</v>
+        <v>0.08059315020517488</v>
       </c>
       <c r="D18">
-        <v>0.7226740807523697</v>
+        <v>0.7095749504439652</v>
       </c>
       <c r="E18">
-        <v>0.3263583625917263</v>
+        <v>0.2916694629677536</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.234125561070186</v>
+        <v>3.29729238544553</v>
       </c>
       <c r="H18">
-        <v>2.320404356845984</v>
+        <v>2.40781764855285</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1961468652629748</v>
+        <v>0.1537013705509054</v>
       </c>
       <c r="K18">
-        <v>1.492168548112147</v>
+        <v>0.8147647163189617</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.423546924006786</v>
+        <v>0.8179536396212939</v>
       </c>
       <c r="C19">
-        <v>0.1826624470156446</v>
+        <v>0.08026639328690521</v>
       </c>
       <c r="D19">
-        <v>0.7172013155159789</v>
+        <v>0.7085508198770469</v>
       </c>
       <c r="E19">
-        <v>0.3237839372735678</v>
+        <v>0.2911715900674352</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.206388703767971</v>
+        <v>3.290200125801675</v>
       </c>
       <c r="H19">
-        <v>2.307780014641224</v>
+        <v>2.404774316667726</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1945227039899322</v>
+        <v>0.1533749464261831</v>
       </c>
       <c r="K19">
-        <v>1.478131877463483</v>
+        <v>0.8119415323284045</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.483614286112839</v>
+        <v>0.8303586694167677</v>
       </c>
       <c r="C20">
-        <v>0.1908653007381815</v>
+        <v>0.08174246699401522</v>
       </c>
       <c r="D20">
-        <v>0.7419428014045479</v>
+        <v>0.7131842255411414</v>
       </c>
       <c r="E20">
-        <v>0.3354222870819967</v>
+        <v>0.2934226737121577</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.331742964322956</v>
+        <v>3.322177232201625</v>
       </c>
       <c r="H20">
-        <v>2.364857177464103</v>
+        <v>2.418510370461661</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2018650369317072</v>
+        <v>0.1548497896049952</v>
       </c>
       <c r="K20">
-        <v>1.541536965622697</v>
+        <v>0.8246901087884453</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.689626682319897</v>
+        <v>0.8727630517631155</v>
       </c>
       <c r="C21">
-        <v>0.2190927193209404</v>
+        <v>0.08680087376842494</v>
       </c>
       <c r="D21">
-        <v>0.8272179544964331</v>
+        <v>0.7291849040281591</v>
       </c>
       <c r="E21">
-        <v>0.3755337159591434</v>
+        <v>0.3011719535739061</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.763082439581751</v>
+        <v>3.430693074096041</v>
       </c>
       <c r="H21">
-        <v>2.561662161621769</v>
+        <v>2.465377126927649</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2271700161551564</v>
+        <v>0.1599086336735667</v>
       </c>
       <c r="K21">
-        <v>1.759131030845623</v>
+        <v>0.8682942733944685</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.827849345339359</v>
+        <v>0.901018992787499</v>
       </c>
       <c r="C22">
-        <v>0.238118134572602</v>
+        <v>0.09018118043573509</v>
       </c>
       <c r="D22">
-        <v>0.8847618235693915</v>
+        <v>0.739965965095422</v>
       </c>
       <c r="E22">
-        <v>0.4026020940691168</v>
+        <v>0.3063756892144269</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.053604336162664</v>
+        <v>3.502425827426009</v>
       </c>
       <c r="H22">
-        <v>2.694525115370027</v>
+        <v>2.496544025495098</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2442484248636134</v>
+        <v>0.1632925068199569</v>
       </c>
       <c r="K22">
-        <v>1.905247304923023</v>
+        <v>0.8973687973852691</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.75371841742276</v>
+        <v>0.8858885377771912</v>
       </c>
       <c r="C23">
-        <v>0.2279056001227957</v>
+        <v>0.08837020824341835</v>
       </c>
       <c r="D23">
-        <v>0.8538693537004178</v>
+        <v>0.7341822320054519</v>
       </c>
       <c r="E23">
-        <v>0.3880701477656174</v>
+        <v>0.3035855914712684</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.897687863319675</v>
+        <v>3.464065913191348</v>
       </c>
       <c r="H23">
-        <v>2.623192388634607</v>
+        <v>2.47986032554428</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2350793909405695</v>
+        <v>0.1614793392423195</v>
       </c>
       <c r="K23">
-        <v>1.826870244863358</v>
+        <v>0.8817982618600979</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.480300981926206</v>
+        <v>0.8296747206286739</v>
       </c>
       <c r="C24">
-        <v>0.1904125203738261</v>
+        <v>0.0816610370377191</v>
       </c>
       <c r="D24">
-        <v>0.7405765438934964</v>
+        <v>0.7129281541235173</v>
       </c>
       <c r="E24">
-        <v>0.3347796146648889</v>
+        <v>0.2932983567855274</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.324823344998777</v>
+        <v>3.320417171757128</v>
       </c>
       <c r="H24">
-        <v>2.361705001964225</v>
+        <v>2.417753369104389</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2014595974432751</v>
+        <v>0.1547684097096607</v>
       </c>
       <c r="K24">
-        <v>1.538039106827256</v>
+        <v>0.8239871241887613</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.19792783150595</v>
+        <v>0.7713556242904076</v>
       </c>
       <c r="C25">
-        <v>0.1519530062460035</v>
+        <v>0.07473968252541852</v>
       </c>
       <c r="D25">
-        <v>0.6248393906345484</v>
+        <v>0.6913859221455709</v>
       </c>
       <c r="E25">
-        <v>0.2803291126967054</v>
+        <v>0.2827957117605564</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.737438883073708</v>
+        <v>3.16889629469361</v>
       </c>
       <c r="H25">
-        <v>2.094821946161176</v>
+        <v>2.353042643237757</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1671033572668819</v>
+        <v>0.1478600522970979</v>
       </c>
       <c r="K25">
-        <v>1.240120944364094</v>
+        <v>0.764089539129543</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_133/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7303842732983412</v>
+        <v>0.9980754740782061</v>
       </c>
       <c r="C2">
-        <v>0.06990963580585685</v>
+        <v>0.1248679374156154</v>
       </c>
       <c r="D2">
-        <v>0.6767035258003489</v>
+        <v>0.543917813073449</v>
       </c>
       <c r="E2">
-        <v>0.2755673430226437</v>
+        <v>0.2422356419602494</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.060189984765742</v>
+        <v>3.324959093235293</v>
       </c>
       <c r="H2">
-        <v>2.307321076619587</v>
+        <v>1.90843011168019</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1430532246694796</v>
+        <v>0.1430523103040002</v>
       </c>
       <c r="K2">
-        <v>0.7220761204327459</v>
+        <v>1.029460672578722</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7038350451051656</v>
+        <v>0.8664948831514323</v>
       </c>
       <c r="C3">
-        <v>0.06679977807573323</v>
+        <v>0.107082077918065</v>
       </c>
       <c r="D3">
-        <v>0.6674835966361456</v>
+        <v>0.491216477747173</v>
       </c>
       <c r="E3">
-        <v>0.2709806420593637</v>
+        <v>0.217406746517554</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.988258369005621</v>
+        <v>3.055224251544729</v>
       </c>
       <c r="H3">
-        <v>2.27751785654462</v>
+        <v>1.787164232618096</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.139968016515013</v>
+        <v>0.1273615512727559</v>
       </c>
       <c r="K3">
-        <v>0.6948936435151438</v>
+        <v>0.8908322950020136</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6881313307902417</v>
+        <v>0.7872707559479863</v>
       </c>
       <c r="C4">
-        <v>0.06497022058290725</v>
+        <v>0.09638547702246569</v>
       </c>
       <c r="D4">
-        <v>0.6621814344264862</v>
+        <v>0.4597568069076488</v>
       </c>
       <c r="E4">
-        <v>0.2683175004330494</v>
+        <v>0.2025736933293132</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.944937172142261</v>
+        <v>2.893664601465446</v>
       </c>
       <c r="H4">
-        <v>2.259796618350009</v>
+        <v>1.714834046173934</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1381581173780191</v>
+        <v>0.117979083754534</v>
       </c>
       <c r="K4">
-        <v>0.6788364726088219</v>
+        <v>0.8073829658008265</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6818819778537488</v>
+        <v>0.7553348667009345</v>
       </c>
       <c r="C5">
-        <v>0.06424466735195722</v>
+        <v>0.09207518852765872</v>
       </c>
       <c r="D5">
-        <v>0.6601108838342782</v>
+        <v>0.4471417696909725</v>
       </c>
       <c r="E5">
-        <v>0.2672706678702923</v>
+        <v>0.196622593519912</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.927494433010708</v>
+        <v>2.828743140922342</v>
       </c>
       <c r="H5">
-        <v>2.25271983344112</v>
+        <v>1.685844568780681</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1374417309590399</v>
+        <v>0.1142124064119727</v>
       </c>
       <c r="K5">
-        <v>0.67245188780376</v>
+        <v>0.7737463726350029</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6808533327882458</v>
+        <v>0.7500517306370398</v>
       </c>
       <c r="C6">
-        <v>0.06412539561493702</v>
+        <v>0.09136219584659955</v>
       </c>
       <c r="D6">
-        <v>0.6597725101003675</v>
+        <v>0.4450588514500851</v>
       </c>
       <c r="E6">
-        <v>0.2670991602055466</v>
+        <v>0.1956397841413917</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.924610779489797</v>
+        <v>2.818015347488824</v>
       </c>
       <c r="H6">
-        <v>2.251553464802981</v>
+        <v>1.681058850016086</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1373240517018459</v>
+        <v>0.1135901989411963</v>
       </c>
       <c r="K6">
-        <v>0.6714013168384838</v>
+        <v>0.7681819841205311</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6880464426429569</v>
+        <v>0.7868387033801127</v>
       </c>
       <c r="C7">
-        <v>0.06496035462828331</v>
+        <v>0.0963271595822448</v>
       </c>
       <c r="D7">
-        <v>0.6621531455143099</v>
+        <v>0.4595858725640483</v>
       </c>
       <c r="E7">
-        <v>0.2683032270306214</v>
+        <v>0.2024930689557607</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.944701080932845</v>
+        <v>2.892785474651959</v>
       </c>
       <c r="H7">
-        <v>2.259700593020426</v>
+        <v>1.714441179975893</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1381483703447373</v>
+        <v>0.1179280634978639</v>
       </c>
       <c r="K7">
-        <v>0.6787497251424099</v>
+        <v>0.8069278972732548</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7211059062411493</v>
+        <v>0.9523527456182705</v>
       </c>
       <c r="C8">
-        <v>0.06882071772557197</v>
+        <v>0.1186840594400564</v>
       </c>
       <c r="D8">
-        <v>0.6734499194764396</v>
+        <v>0.5255465413405886</v>
       </c>
       <c r="E8">
-        <v>0.2739540183715192</v>
+        <v>0.2335827812171658</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.035211627523353</v>
+        <v>3.231046195094308</v>
       </c>
       <c r="H8">
-        <v>2.296924579832393</v>
+        <v>1.866145124432848</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1419718782165589</v>
+        <v>0.1375857804038532</v>
       </c>
       <c r="K8">
-        <v>0.7125720169727288</v>
+        <v>0.9812837613857823</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7906931984257426</v>
+        <v>1.291625373510357</v>
       </c>
       <c r="C9">
-        <v>0.0770294726396088</v>
+        <v>0.1646877453201654</v>
       </c>
       <c r="D9">
-        <v>0.6984586076710286</v>
+        <v>0.6630803737743065</v>
       </c>
       <c r="E9">
-        <v>0.2862547639414785</v>
+        <v>0.2983229393013147</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.219486578570638</v>
+        <v>3.931805844412111</v>
       </c>
       <c r="H9">
-        <v>2.374539148810129</v>
+        <v>2.18296975532391</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1501433988455076</v>
+        <v>0.1784585258037126</v>
       </c>
       <c r="K9">
-        <v>0.7839398942285243</v>
+        <v>1.338938019780301</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8447490603749372</v>
+        <v>1.553382528742816</v>
       </c>
       <c r="C10">
-        <v>0.08345698068525564</v>
+        <v>0.2004081554678265</v>
       </c>
       <c r="D10">
-        <v>0.7185876003397595</v>
+        <v>0.7707518789197252</v>
       </c>
       <c r="E10">
-        <v>0.2960435428454389</v>
+        <v>0.3489735280652297</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.359132915113491</v>
+        <v>4.477583230125589</v>
       </c>
       <c r="H10">
-        <v>2.434429349751127</v>
+        <v>2.431332029654413</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1565636993857566</v>
+        <v>0.2104139676904566</v>
       </c>
       <c r="K10">
-        <v>0.8394834505520237</v>
+        <v>1.615203728761031</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.869983740137485</v>
+        <v>1.676078540981024</v>
       </c>
       <c r="C11">
-        <v>0.08646877457145763</v>
+        <v>0.2172317330412881</v>
       </c>
       <c r="D11">
-        <v>0.7281292354047935</v>
+        <v>0.8215912599521005</v>
       </c>
       <c r="E11">
-        <v>0.3006617131284699</v>
+        <v>0.3728870412392382</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.423614286509348</v>
+        <v>4.734652666220995</v>
       </c>
       <c r="H11">
-        <v>2.462309014251503</v>
+        <v>2.548673001592931</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1595763122579257</v>
+        <v>0.2255002535780335</v>
       </c>
       <c r="K11">
-        <v>0.8654352204852387</v>
+        <v>1.744814619408373</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8796325633464335</v>
+        <v>1.723147133013356</v>
       </c>
       <c r="C12">
-        <v>0.08762202156832188</v>
+        <v>0.2237000209803028</v>
       </c>
       <c r="D12">
-        <v>0.7317979643982255</v>
+        <v>0.8411500317289153</v>
       </c>
       <c r="E12">
-        <v>0.3024343754141867</v>
+        <v>0.3820871176005625</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.448171050664996</v>
+        <v>4.833458898504034</v>
       </c>
       <c r="H12">
-        <v>2.472958472071866</v>
+        <v>2.593826058463549</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1607304342860232</v>
+        <v>0.2313045732543628</v>
       </c>
       <c r="K12">
-        <v>0.8753614930674303</v>
+        <v>1.794556438300759</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8775503750730138</v>
+        <v>1.712981626960328</v>
       </c>
       <c r="C13">
-        <v>0.08737308056764448</v>
+        <v>0.222302359602125</v>
       </c>
       <c r="D13">
-        <v>0.7310053658710274</v>
+        <v>0.8369233605073134</v>
       </c>
       <c r="E13">
-        <v>0.3020515379304101</v>
+        <v>0.3800989571280411</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.44287610042096</v>
+        <v>4.812110921158194</v>
       </c>
       <c r="H13">
-        <v>2.470660816684585</v>
+        <v>2.584067998661794</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1604812801049462</v>
+        <v>0.2300502255988732</v>
       </c>
       <c r="K13">
-        <v>0.8732192869077835</v>
+        <v>1.783812606630562</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8707756888583162</v>
+        <v>1.679938223229783</v>
       </c>
       <c r="C14">
-        <v>0.08656339682069358</v>
+        <v>0.2177618345127428</v>
       </c>
       <c r="D14">
-        <v>0.7284299502308045</v>
+        <v>0.8231939739511915</v>
       </c>
       <c r="E14">
-        <v>0.3008070722918816</v>
+        <v>0.3736409219218046</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.42563178957505</v>
+        <v>4.742751056495194</v>
       </c>
       <c r="H14">
-        <v>2.463183303155404</v>
+        <v>2.552372803725916</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1596709953172848</v>
+        <v>0.2259758682584305</v>
       </c>
       <c r="K14">
-        <v>0.8662498762310236</v>
+        <v>1.748893074177914</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8666381191149242</v>
+        <v>1.659779861361955</v>
       </c>
       <c r="C15">
-        <v>0.0860691052985203</v>
+        <v>0.2149938170672812</v>
       </c>
       <c r="D15">
-        <v>0.7268596693382108</v>
+        <v>0.8148255716512836</v>
       </c>
       <c r="E15">
-        <v>0.3000479117798065</v>
+        <v>0.3697046219737956</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.415087311597404</v>
+        <v>4.700462429191873</v>
       </c>
       <c r="H15">
-        <v>2.458615115962857</v>
+        <v>2.533055075521759</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1591764084672604</v>
+        <v>0.2234925153984619</v>
       </c>
       <c r="K15">
-        <v>0.8619938039631734</v>
+        <v>1.727592957809634</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8431129098889301</v>
+        <v>1.545443998289585</v>
       </c>
       <c r="C16">
-        <v>0.0832619305643334</v>
+        <v>0.1993214862928454</v>
       </c>
       <c r="D16">
-        <v>0.7179717913383001</v>
+        <v>0.7674700947443114</v>
       </c>
       <c r="E16">
-        <v>0.2957450678382543</v>
+        <v>0.3474298563653306</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.354938275656139</v>
+        <v>4.460976219759715</v>
       </c>
       <c r="H16">
-        <v>2.432620189891765</v>
+        <v>2.423758832207369</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1563686761382712</v>
+        <v>0.2094401304678826</v>
       </c>
       <c r="K16">
-        <v>0.8378012568861379</v>
+        <v>1.606820406838438</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8288462351881378</v>
+        <v>1.476287759598989</v>
       </c>
       <c r="C17">
-        <v>0.08156240595475595</v>
+        <v>0.1898641418430458</v>
       </c>
       <c r="D17">
-        <v>0.7126180610341351</v>
+        <v>0.7389219060489154</v>
       </c>
       <c r="E17">
-        <v>0.293147799512063</v>
+        <v>0.3340012896278566</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.318284707459753</v>
+        <v>4.316442779303486</v>
       </c>
       <c r="H17">
-        <v>2.416836342484117</v>
+        <v>2.357887532438838</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1546698419674755</v>
+        <v>0.2009685787692774</v>
       </c>
       <c r="K17">
-        <v>0.8231355946256826</v>
+        <v>1.533802414088939</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8207010541698594</v>
+        <v>1.436846074325359</v>
       </c>
       <c r="C18">
-        <v>0.08059315020517488</v>
+        <v>0.184477565252962</v>
       </c>
       <c r="D18">
-        <v>0.7095749504439652</v>
+        <v>0.7226740807525118</v>
       </c>
       <c r="E18">
-        <v>0.2916694629677536</v>
+        <v>0.3263583625917406</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.29729238544553</v>
+        <v>4.234125561070073</v>
       </c>
       <c r="H18">
-        <v>2.40781764855285</v>
+        <v>2.32040435684587</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1537013705509054</v>
+        <v>0.1961468652630884</v>
       </c>
       <c r="K18">
-        <v>0.8147647163189617</v>
+        <v>1.492168548112204</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8179536396212939</v>
+        <v>1.423546924006899</v>
       </c>
       <c r="C19">
-        <v>0.08026639328690521</v>
+        <v>0.1826624470159715</v>
       </c>
       <c r="D19">
-        <v>0.7085508198770469</v>
+        <v>0.7172013155157231</v>
       </c>
       <c r="E19">
-        <v>0.2911715900674352</v>
+        <v>0.3237839372735607</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.290200125801675</v>
+        <v>4.206388703767885</v>
       </c>
       <c r="H19">
-        <v>2.404774316667726</v>
+        <v>2.307780014641224</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1533749464261831</v>
+        <v>0.1945227039901027</v>
       </c>
       <c r="K19">
-        <v>0.8119415323284045</v>
+        <v>1.478131877463454</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8303586694167677</v>
+        <v>1.483614286112982</v>
       </c>
       <c r="C20">
-        <v>0.08174246699401522</v>
+        <v>0.1908653007379115</v>
       </c>
       <c r="D20">
-        <v>0.7131842255411414</v>
+        <v>0.7419428014044058</v>
       </c>
       <c r="E20">
-        <v>0.2934226737121577</v>
+        <v>0.3354222870819754</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.322177232201625</v>
+        <v>4.331742964322899</v>
       </c>
       <c r="H20">
-        <v>2.418510370461661</v>
+        <v>2.364857177464103</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1548497896049952</v>
+        <v>0.2018650369315935</v>
       </c>
       <c r="K20">
-        <v>0.8246901087884453</v>
+        <v>1.541536965622527</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8727630517631155</v>
+        <v>1.689626682320153</v>
       </c>
       <c r="C21">
-        <v>0.08680087376842494</v>
+        <v>0.2190927193209831</v>
       </c>
       <c r="D21">
-        <v>0.7291849040281591</v>
+        <v>0.8272179544962626</v>
       </c>
       <c r="E21">
-        <v>0.3011719535739061</v>
+        <v>0.3755337159591434</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.430693074096041</v>
+        <v>4.763082439581865</v>
       </c>
       <c r="H21">
-        <v>2.465377126927649</v>
+        <v>2.561662161621769</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1599086336735667</v>
+        <v>0.2271700161553412</v>
       </c>
       <c r="K21">
-        <v>0.8682942733944685</v>
+        <v>1.759131030845595</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.901018992787499</v>
+        <v>1.827849345339303</v>
       </c>
       <c r="C22">
-        <v>0.09018118043573509</v>
+        <v>0.2381181345728436</v>
       </c>
       <c r="D22">
-        <v>0.739965965095422</v>
+        <v>0.8847618235693346</v>
       </c>
       <c r="E22">
-        <v>0.3063756892144269</v>
+        <v>0.4026020940691808</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.502425827426009</v>
+        <v>5.053604336162834</v>
       </c>
       <c r="H22">
-        <v>2.496544025495098</v>
+        <v>2.694525115370141</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1632925068199569</v>
+        <v>0.2442484248634145</v>
       </c>
       <c r="K22">
-        <v>0.8973687973852691</v>
+        <v>1.905247304923051</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8858885377771912</v>
+        <v>1.753718417422647</v>
       </c>
       <c r="C23">
-        <v>0.08837020824341835</v>
+        <v>0.2279056001227673</v>
       </c>
       <c r="D23">
-        <v>0.7341822320054519</v>
+        <v>0.8538693537003894</v>
       </c>
       <c r="E23">
-        <v>0.3035855914712684</v>
+        <v>0.3880701477656388</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.464065913191348</v>
+        <v>4.897687863319675</v>
       </c>
       <c r="H23">
-        <v>2.47986032554428</v>
+        <v>2.623192388634607</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1614793392423195</v>
+        <v>0.2350793909403137</v>
       </c>
       <c r="K23">
-        <v>0.8817982618600979</v>
+        <v>1.826870244863471</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8296747206286739</v>
+        <v>1.480300981926405</v>
       </c>
       <c r="C24">
-        <v>0.0816610370377191</v>
+        <v>0.1904125203738261</v>
       </c>
       <c r="D24">
-        <v>0.7129281541235173</v>
+        <v>0.7405765438935248</v>
       </c>
       <c r="E24">
-        <v>0.2932983567855274</v>
+        <v>0.334779614664896</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.320417171757128</v>
+        <v>4.324823344998777</v>
       </c>
       <c r="H24">
-        <v>2.417753369104389</v>
+        <v>2.361705001964452</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1547684097096607</v>
+        <v>0.2014595974435593</v>
       </c>
       <c r="K24">
-        <v>0.8239871241887613</v>
+        <v>1.538039106827085</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7713556242904076</v>
+        <v>1.19792783150595</v>
       </c>
       <c r="C25">
-        <v>0.07473968252541852</v>
+        <v>0.1519530062457193</v>
       </c>
       <c r="D25">
-        <v>0.6913859221455709</v>
+        <v>0.6248393906346337</v>
       </c>
       <c r="E25">
-        <v>0.2827957117605564</v>
+        <v>0.2803291126966911</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.16889629469361</v>
+        <v>3.737438883073708</v>
       </c>
       <c r="H25">
-        <v>2.353042643237757</v>
+        <v>2.094821946161176</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1478600522970979</v>
+        <v>0.1671033572668819</v>
       </c>
       <c r="K25">
-        <v>0.764089539129543</v>
+        <v>1.240120944364065</v>
       </c>
       <c r="L25">
         <v>0</v>
